--- a/rxrx1_pca_ks_results_sudden.xlsx
+++ b/rxrx1_pca_ks_results_sudden.xlsx
@@ -470,13 +470,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -825,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
